--- a/languages/locale.xlsx
+++ b/languages/locale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documents\RPG maker project\Project2\languages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documents\RPG_maker_project\Project2\languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{574418DA-B085-4F0C-BB60-945A527CB7AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B58AA1ED-788E-4F33-A06C-66A15C5CFBD6}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{574418DA-B085-4F0C-BB60-945A527CB7AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AA9A4AD9-8A60-4482-A090-C10E7CC58050}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{2C477DDF-533C-4758-8B65-C5B406A5E657}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{2C477DDF-533C-4758-8B65-C5B406A5E657}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>New game</t>
   </si>
@@ -107,6 +107,57 @@
   </si>
   <si>
     <t>cancel</t>
+  </si>
+  <si>
+    <t>Hôm nay, mình được chọn là người biểu diễn chính trong tiết mục trình diễn âm nhạc hôm lễ hội trường. Chắc bố mẹ sẽ rất vui khi biết tin</t>
+  </si>
+  <si>
+    <t>Today, I was chosen to be the main performer in the music performance segment at the assembly hall festival. I'm sure my parents will be very happy to hear the news.</t>
+  </si>
+  <si>
+    <t>Đây là chiếc piano yêu thích của mình, bố đặt nó ngay giữa phòng khách để mình có thể chơi đàn trước những vị khách của bố. Ông ấy rất tự hào về mình</t>
+  </si>
+  <si>
+    <t>This is my favorite piano, placed right in the middle of the living room by my dad so that I can play in front of his guests. He's very proud of me</t>
+  </si>
+  <si>
+    <t>The reading room is not this way</t>
+  </si>
+  <si>
+    <t>Phòng đọc sách không ở lối này</t>
+  </si>
+  <si>
+    <t>Ồ! Bố mẹ đã chuẩn bị sẵn tiệc sinh nhật cho mình</t>
+  </si>
+  <si>
+    <t>Oh! My parents have already prepared a birthday party for me</t>
+  </si>
+  <si>
+    <t>Nhưng hai người đâu rồi nhỉ, có lẽ họ đang trốn ở đâu đó để làm mình bất ngờ</t>
+  </si>
+  <si>
+    <t>But where are they? Maybe they're hiding somewhere to surprise me</t>
+  </si>
+  <si>
+    <t>Mình đoán họ đang ở trong phòng đọc sách</t>
+  </si>
+  <si>
+    <t>I guess they're in the reading room</t>
+  </si>
+  <si>
+    <t>Bố mẹ ơi co...!</t>
+  </si>
+  <si>
+    <t>Mum, Dad, I...!</t>
+  </si>
+  <si>
+    <t>tutorial1</t>
+  </si>
+  <si>
+    <t>Use the &lt;A, S, W, D&gt; keys to move, and &lt;Space&gt; to interact with objects</t>
+  </si>
+  <si>
+    <t>Sử dụng phím &lt; A, S, W, D &gt; để di chuyển, &lt; Space &gt; để tương tác với đồ vật</t>
   </si>
 </sst>
 </file>
@@ -142,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7366FEBC-8090-4A4C-998F-2E9266B8C766}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +624,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -578,12 +643,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E4AFD1-C52C-4D18-B2D2-6E50141C10F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>